--- a/evaluation/code/BURT ICSE’22 Evaluation Survey_August_18_users.xlsx
+++ b/evaluation/code/BURT ICSE’22 Evaluation Survey_August_18_users.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\burt\evaluation\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E9FDF1-1CD2-4C35-8F19-C41EA7BE6388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D22B6D-508C-4094-9BF8-84B3C85B50A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="31738" yWindow="887" windowWidth="24929" windowHeight="14504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3133" yWindow="852" windowWidth="24930" windowHeight="14504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AV$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AW$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="433">
   <si>
     <t>EndDate</t>
   </si>
@@ -1351,6 +1351,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>Participant type</t>
+  </si>
+  <si>
+    <t>technical with reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical without reporting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-technical without reporting </t>
+  </si>
+  <si>
+    <t>technical without reporting</t>
   </si>
 </sst>
 </file>
@@ -1391,13 +1409,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1712,16 +1733,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV20"/>
+  <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS2" sqref="AS2"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="17.5" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>426</v>
       </c>
@@ -1782,92 +1806,95 @@
       <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -1928,92 +1955,95 @@
       <c r="T2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44426.729108796295</v>
       </c>
@@ -2074,92 +2104,95 @@
       <c r="T3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>92</v>
+      <c r="U3" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44430.640393518515</v>
       </c>
@@ -2220,92 +2253,95 @@
       <c r="T4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>92</v>
+      <c r="U4" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>166</v>
       </c>
       <c r="X4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AR4" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AS4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44428.67386574074</v>
       </c>
@@ -2366,92 +2402,95 @@
       <c r="T5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>125</v>
+      <c r="U5" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AI5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ5" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AK5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AO5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AU5" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AU5" s="2" t="s">
+      <c r="AV5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44430.954618055555</v>
       </c>
@@ -2512,92 +2551,95 @@
       <c r="T6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>92</v>
+      <c r="U6" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AI6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AK6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AM6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AR6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AS6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44429.548750000002</v>
       </c>
@@ -2658,92 +2700,95 @@
       <c r="T7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>92</v>
+      <c r="U7" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>166</v>
       </c>
       <c r="X7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AF7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AG7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AI7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AK7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AM7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AO7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AP7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AR7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AS7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44428.589375000003</v>
       </c>
@@ -2804,92 +2849,95 @@
       <c r="T8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>92</v>
+      <c r="U8" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AK8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN8" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AO8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP8" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44429.54347222222</v>
       </c>
@@ -2950,92 +2998,95 @@
       <c r="T9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>92</v>
+      <c r="U9" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="X9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AO9" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AT9" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AU9" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AV9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44432.637407407405</v>
       </c>
@@ -3096,92 +3147,95 @@
       <c r="T10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>92</v>
+      <c r="U10" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>166</v>
       </c>
       <c r="X10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AT10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AU10" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44430.866782407407</v>
       </c>
@@ -3242,92 +3296,95 @@
       <c r="T11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>92</v>
+      <c r="U11" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>345</v>
       </c>
       <c r="AS11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AT11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AU11" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="AV11" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44430.780624999999</v>
       </c>
@@ -3388,92 +3445,95 @@
       <c r="T12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>92</v>
+      <c r="U12" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AL12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AN12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AO12" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AR12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="AS12" s="2" t="s">
+      <c r="AT12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AU12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AU12" s="2" t="s">
+      <c r="AV12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AW12" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44431.332858796297</v>
       </c>
@@ -3534,92 +3594,95 @@
       <c r="T13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>92</v>
+      <c r="U13" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="V13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Z13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AB13" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AC13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AG13" s="2" t="s">
+      <c r="AH13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AI13" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AL13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AM13" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AM13" s="2" t="s">
+      <c r="AN13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AO13" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AP13" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AQ13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AR13" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="AR13" s="2" t="s">
+      <c r="AS13" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="AS13" s="2" t="s">
+      <c r="AT13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT13" s="2" t="s">
+      <c r="AU13" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="AU13" s="2" t="s">
+      <c r="AV13" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AV13" s="2" t="s">
+      <c r="AW13" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44429.852337962962</v>
       </c>
@@ -3680,92 +3743,95 @@
       <c r="T14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>92</v>
+      <c r="U14" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>166</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AK14" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AL14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL14" s="2" t="s">
+      <c r="AM14" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AN14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AO14" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AR14" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AU14" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AU14" s="2" t="s">
+      <c r="AV14" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AV14" s="2" t="s">
+      <c r="AW14" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44434.780902777777</v>
       </c>
@@ -3826,92 +3892,95 @@
       <c r="T15" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>92</v>
+      <c r="U15" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ15" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AK15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AL15" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AM15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN15" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AO15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AP15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ15" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AR15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AS15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT15" s="2" t="s">
+      <c r="AU15" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AU15" s="2" t="s">
+      <c r="AV15" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AV15" s="2" t="s">
+      <c r="AW15" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44435.400405092594</v>
       </c>
@@ -3972,92 +4041,95 @@
       <c r="T16" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>92</v>
+      <c r="U16" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="V16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AB16" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AD16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AF16" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AG16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AK16" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AL16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AM16" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN16" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AO16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP16" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AQ16" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AR16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS16" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT16" s="2" t="s">
+      <c r="AU16" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AU16" s="2" t="s">
+      <c r="AV16" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AV16" s="2" t="s">
+      <c r="AW16" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44427.568379629629</v>
       </c>
@@ -4118,92 +4190,95 @@
       <c r="T17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>92</v>
+      <c r="U17" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AK17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AL17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AL17" s="2" t="s">
+      <c r="AM17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AM17" s="2" t="s">
+      <c r="AN17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AO17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AP17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AP17" s="2" t="s">
+      <c r="AQ17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ17" s="2" t="s">
+      <c r="AR17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AR17" s="2" t="s">
+      <c r="AS17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AT17" s="2" t="s">
+      <c r="AU17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AU17" s="2" t="s">
+      <c r="AV17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AV17" s="2" t="s">
+      <c r="AW17" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44427.585289351853</v>
       </c>
@@ -4264,92 +4339,95 @@
       <c r="T18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>92</v>
+      <c r="U18" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="V18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AC18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE18" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AF18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AG18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AK18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AL18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AM18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AM18" s="2" t="s">
+      <c r="AN18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AO18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AP18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="AR18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AR18" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AS18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT18" s="2" t="s">
+      <c r="AU18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AU18" s="2" t="s">
+      <c r="AV18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AV18" s="2" t="s">
+      <c r="AW18" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44427.774826388886</v>
       </c>
@@ -4410,92 +4488,95 @@
       <c r="T19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>92</v>
+      <c r="U19" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>166</v>
       </c>
       <c r="X19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AA19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AD19" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AE19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="AK19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AL19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AM19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AM19" s="2" t="s">
+      <c r="AN19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AO19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AO19" s="2" t="s">
+      <c r="AP19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AP19" s="2" t="s">
+      <c r="AQ19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AQ19" s="2" t="s">
+      <c r="AR19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AR19" s="2" t="s">
+      <c r="AS19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AS19" s="2" t="s">
+      <c r="AT19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AT19" s="2" t="s">
+      <c r="AU19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AU19" s="2" t="s">
+      <c r="AV19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AV19" s="2" t="s">
+      <c r="AW19" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44428.418344907404</v>
       </c>
@@ -4556,101 +4637,104 @@
       <c r="T20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>92</v>
+      <c r="U20" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="X20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AB20" s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AE20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AI20" s="2" t="s">
+      <c r="AJ20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ20" s="2" t="s">
+      <c r="AK20" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AL20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AM20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AN20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AO20" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AO20" s="2" t="s">
+      <c r="AP20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AP20" s="2" t="s">
+      <c r="AQ20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ20" s="2" t="s">
+      <c r="AR20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AR20" s="2" t="s">
+      <c r="AS20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AS20" s="2" t="s">
+      <c r="AT20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AT20" s="2" t="s">
+      <c r="AU20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AU20" s="2" t="s">
+      <c r="AV20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AV20" s="2" t="s">
+      <c r="AW20" s="2" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AV21" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AV21">
+  <autoFilter ref="A2:AW21" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AW20">
       <sortCondition ref="S2:S21"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C2 D1:D2 G1:G2 I1:I2 J1:J2 K1:K2 L1:L2 M1:M2 P1:P2 Q1:Q2 R1:R2 S1:S2 T1:T2 U1:U2 V1:V2 W1:W2 X1:X2 Y1:Y2 Z1:Z2 AA1:AA2 AB1:AB2 AC1:AC2 AD1:AD2 AE1:AE2 AF1:AF2 AG1:AG2 AH1:AH2 AI1:AI2 AJ1:AJ2 AK1:AK2 AL1:AL2 AM1:AM2 AN1:AN2 AO1 AP1:AP2 AQ1:AQ2 AR1:AR2 AS1:AS2 AT1:AT2 AU1:AU2 AV1:AV2" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C2 D1:D2 G1:G2 I1:I2 J1:J2 K1:K2 L1:L2 M1:M2 P1:P2 Q1:Q2 R1:R2 S1:S2 T1:T2 V1:V2 W1:W2 X1:X2 Y1:Y2 Z1:Z2 AA1:AA2 AB1:AB2 AC1:AC2 AD1:AD2 AE1:AE2 AF1:AF2 AG1:AG2 AH1:AH2 AI1:AI2 AJ1:AJ2 AK1:AK2 AL1:AL2 AM1:AM2 AN1:AN2 AO1:AO2 AP1 AQ1:AQ2 AR1:AR2 AS1:AS2 AT1:AT2 AU1:AU2 AV1:AV2 AW1:AW2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>